--- a/Data/Pokemon.xlsx
+++ b/Data/Pokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14100" tabRatio="222"/>
+    <workbookView windowWidth="18750" windowHeight="12645" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Gen1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="348">
   <si>
     <t>Num</t>
   </si>
@@ -65,13 +65,7 @@
     <t>Ability</t>
   </si>
   <si>
-    <t>Moves ID</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Shiny</t>
+    <t>Moves Name or ID</t>
   </si>
   <si>
     <t>Bulbasaur</t>
@@ -248,7 +242,7 @@
     <t>Fearow</t>
   </si>
   <si>
-    <t>36;37</t>
+    <t>MIRROR MOVE;37</t>
   </si>
   <si>
     <t>Ekans</t>
@@ -1782,19 +1776,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O152" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O152" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="67;136"/>
-        <filter val="36;37"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A1:O152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:M152" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M152" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:M152">
     <sortCondition ref="A1:A88"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="13">
     <tableColumn id="1" name="Num"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Type"/>
@@ -1807,9 +1794,7 @@
     <tableColumn id="10" name="Color"/>
     <tableColumn id="13" name="BackGround"/>
     <tableColumn id="14" name="Ability"/>
-    <tableColumn id="15" name="Moves ID" dataDxfId="1"/>
-    <tableColumn id="17" name="Form"/>
-    <tableColumn id="7" name="Shiny"/>
+    <tableColumn id="15" name="Moves Name or ID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2073,12 +2058,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2094,10 +2079,10 @@
     <col min="10" max="10" width="10.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="8.71428571428571" customWidth="1"/>
     <col min="12" max="12" width="8.57142857142857" customWidth="1"/>
-    <col min="13" max="13" width="15.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.7238095238095" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2137,25 +2122,19 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" hidden="1" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2173,27 +2152,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2211,27 +2190,27 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2243,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2278,24 +2257,24 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="1:13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2313,27 +2292,27 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" spans="1:13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2345,27 +2324,27 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2383,27 +2362,27 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2421,27 +2400,27 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2453,27 +2432,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2491,24 +2470,24 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:13">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2526,27 +2505,27 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="1:13">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2558,27 +2537,27 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="1:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2596,27 +2575,27 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:13">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2634,27 +2613,27 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2666,27 +2645,27 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2704,30 +2683,30 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2745,30 +2724,30 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -2780,27 +2759,27 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2818,24 +2797,24 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2847,27 +2826,27 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2885,16 +2864,16 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2902,13 +2881,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2920,27 +2899,27 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2958,24 +2937,24 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" spans="1:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2987,24 +2966,24 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" spans="1:13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3022,24 +3001,24 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3051,24 +3030,24 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3086,24 +3065,24 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3115,24 +3094,24 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3150,24 +3129,24 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3185,27 +3164,27 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -3217,24 +3196,24 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3252,24 +3231,24 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3287,27 +3266,27 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -3319,24 +3298,24 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3354,24 +3333,24 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -3383,24 +3362,24 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3418,24 +3397,24 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3447,27 +3426,27 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3485,27 +3464,27 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -3517,27 +3496,27 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3555,30 +3534,30 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3590,30 +3569,30 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3631,27 +3610,27 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3669,27 +3648,27 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3701,27 +3680,27 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3739,27 +3718,27 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3771,27 +3750,27 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" hidden="1" spans="1:13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3809,27 +3788,27 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" spans="1:13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3841,24 +3820,24 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3876,24 +3855,24 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3905,24 +3884,24 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="1:13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3940,24 +3919,24 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="1:13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3969,24 +3948,24 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4004,27 +3983,27 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="1:13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4036,27 +4015,27 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="1:13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4074,24 +4053,24 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4103,24 +4082,24 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" spans="1:13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4138,24 +4117,24 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4167,24 +4146,24 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" spans="1:13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4202,27 +4181,27 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" spans="1:13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4240,30 +4219,30 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -4275,27 +4254,27 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" spans="1:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4313,27 +4292,27 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M64" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:13">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4351,27 +4330,27 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L65" t="s">
+        <v>162</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" spans="1:13">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -4383,27 +4362,27 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" spans="1:13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4421,24 +4400,24 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="1:13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4456,24 +4435,24 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="1:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -4485,27 +4464,27 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" hidden="1" spans="1:13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4523,27 +4502,27 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="1:13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4561,27 +4540,27 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" hidden="1" spans="1:13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -4593,27 +4572,27 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" spans="1:13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4631,30 +4610,30 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4666,30 +4645,30 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="1:13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4707,27 +4686,27 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" spans="1:13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4745,27 +4724,27 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" hidden="1" spans="1:13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -4777,24 +4756,24 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="1:13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4812,24 +4791,24 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="1:13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4841,27 +4820,27 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="1:13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4879,30 +4858,30 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" spans="1:13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4914,30 +4893,30 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="1:13">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4955,27 +4934,27 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" hidden="1" spans="1:13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4990,27 +4969,27 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="1:13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5022,30 +5001,30 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" hidden="1" spans="1:13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5063,30 +5042,30 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="1:13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5098,27 +5077,27 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" hidden="1" spans="1:13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5136,30 +5115,30 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" hidden="1" spans="1:13">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5171,27 +5150,27 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="1:13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5209,24 +5188,24 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" spans="1:13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5238,24 +5217,24 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" hidden="1" spans="1:13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5273,30 +5252,30 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" spans="1:13">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5308,30 +5287,30 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" spans="1:13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5349,27 +5328,27 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M93" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:13">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5387,27 +5366,27 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
+        <v>226</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:13">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -5419,27 +5398,27 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" hidden="1" spans="1:13">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5454,24 +5433,24 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -5489,24 +5468,24 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" spans="1:13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5518,24 +5497,24 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" hidden="1" spans="1:13">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5553,27 +5532,27 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K99" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" hidden="1" spans="1:13">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5585,27 +5564,27 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" hidden="1" spans="1:13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5623,24 +5602,24 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" hidden="1" spans="1:13">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5652,27 +5631,27 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" hidden="1" spans="1:13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5690,27 +5669,27 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" hidden="1" spans="1:13">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5722,24 +5701,24 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="105" hidden="1" spans="1:13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5757,24 +5736,24 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="106" hidden="1" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5786,24 +5765,24 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" hidden="1" spans="1:13">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5815,24 +5794,24 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" hidden="1" spans="1:13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5844,24 +5823,24 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" hidden="1" spans="1:13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5876,27 +5855,27 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" hidden="1" spans="1:13">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5914,24 +5893,24 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" hidden="1" spans="1:13">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5943,27 +5922,27 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" hidden="1" spans="1:13">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5981,27 +5960,27 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" spans="1:13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6016,27 +5995,27 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" hidden="1" spans="1:13">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6051,24 +6030,24 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K114" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" hidden="1" spans="1:13">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6083,24 +6062,24 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="116" hidden="1" spans="1:13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6112,27 +6091,27 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K116" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" hidden="1" spans="1:13">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6150,27 +6129,27 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="118" hidden="1" spans="1:13">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6185,27 +6164,27 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" spans="1:13">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6223,27 +6202,27 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="120" hidden="1" spans="1:13">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6255,27 +6234,27 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="121" hidden="1" spans="1:13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6293,30 +6272,30 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="122" hidden="1" spans="1:13">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6328,16 +6307,16 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6345,13 +6324,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D123" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6363,27 +6342,27 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" spans="1:13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6398,27 +6377,27 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K124" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" hidden="1" spans="1:13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6430,24 +6409,24 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K125" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="126" hidden="1" spans="1:13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6462,24 +6441,24 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="127" hidden="1" spans="1:13">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6494,24 +6473,24 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" spans="1:13">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6523,24 +6502,24 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K128" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="129" hidden="1" spans="1:13">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6552,27 +6531,27 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" hidden="1" spans="1:13">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6590,30 +6569,30 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M130" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:13">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6625,30 +6604,30 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K131" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132" hidden="1" spans="1:13">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D132" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6660,27 +6639,27 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" hidden="1" spans="1:13">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6692,30 +6671,30 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M133" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:13">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -6727,24 +6706,24 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K134" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" hidden="1" spans="1:13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6756,27 +6735,27 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136" hidden="1" spans="1:13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6788,24 +6767,24 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K136" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137" hidden="1" spans="1:13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6817,24 +6796,24 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K137" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" hidden="1" spans="1:13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6849,27 +6828,27 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K138" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" hidden="1" spans="1:13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6887,30 +6866,30 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="140" hidden="1" spans="1:13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6922,30 +6901,30 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K140" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="141" hidden="1" spans="1:13">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6963,30 +6942,30 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K141" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" hidden="1" spans="1:13">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6998,30 +6977,30 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="143" hidden="1" spans="1:13">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C143" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7033,27 +7012,27 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K143" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="144" hidden="1" spans="1:13">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7065,30 +7044,30 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" hidden="1" spans="1:13">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7100,30 +7079,30 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
+        <v>329</v>
+      </c>
+      <c r="K145" t="s">
+        <v>330</v>
+      </c>
+      <c r="L145" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="K145" t="s">
-        <v>332</v>
-      </c>
-      <c r="L145" t="s">
-        <v>34</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="146" hidden="1" spans="1:13">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7135,30 +7114,30 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K146" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="147" hidden="1" spans="1:13">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7170,27 +7149,27 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K147" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="148" hidden="1" spans="1:13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C148" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7208,27 +7187,27 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K148" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="149" hidden="1" spans="1:13">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7246,30 +7225,30 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K149" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="150" hidden="1" spans="1:13">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C150" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -7281,27 +7260,27 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K150" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L150" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="151" hidden="1" spans="1:13">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7313,27 +7292,27 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="152" hidden="1" spans="1:13">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7345,16 +7324,16 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L152" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
